--- a/django_app/app_shnk/management/commands/shnk.xlsx
+++ b/django_app/app_shnk/management/commands/shnk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FASTAPI\tmsiti\tmsiti\django_app\app_shnk\management\commands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2189956C-DEC8-488D-8F98-ECC61C9BD55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3DD8E8-4418-4A24-AAB3-7CC4592847CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="АМАЛДАГИ ШНҚлар" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="1021">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2677" uniqueCount="1076">
   <si>
     <t>Амалдаги ҚМҚ ва ШНҚлар</t>
   </si>
@@ -3149,6 +3149,206 @@
   </si>
   <si>
     <t>name_ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Қурилиш учун муҳандислик геология изланишлари. </t>
+  </si>
+  <si>
+    <t>ШНҚ 1.04.04-24</t>
+  </si>
+  <si>
+    <t>https://lex.uz/docs/7362769</t>
+  </si>
+  <si>
+    <t>ШНҚ 1.05.01-19</t>
+  </si>
+  <si>
+    <t>ўзгартириш 1-сон
+(22.01.2020)
+ ШНҚ 2.01.02-04</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.01.03-19</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.01.04-18</t>
+  </si>
+  <si>
+    <t>ўзгартириш
+ШНҚ 2.01.04-2018</t>
+  </si>
+  <si>
+    <t>Пособие к КМК 2.01.04-97</t>
+  </si>
+  <si>
+    <t>По проектированию новых энергосберегающих решений по строительной теплотехнике</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.01.05-24</t>
+  </si>
+  <si>
+    <t>ўзгартириш 1
+(01.03.2004)
+ҚМҚ 2.01.07-96</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.01.08-19</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.01.09-19</t>
+  </si>
+  <si>
+    <t>ўзгартириш 1
+(20.06.2008)
+ҚМҚ 2.01.12-96</t>
+  </si>
+  <si>
+    <t>ўзгартириш 1
+(01.12.2003)
+ҚМҚ 2.01.14-98</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.02.01-19</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.02.02-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.03.03-21 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.03.06-22 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.03.08-22 </t>
+  </si>
+  <si>
+    <t>Пособие к 
+КМК 2.03.10-95</t>
+  </si>
+  <si>
+    <t>По проектированию крыш и кровель энергоэффективных зданий</t>
+  </si>
+  <si>
+    <t>Изменение №1
+(04.04.2019)
+ШНҚ 2.03.14-18</t>
+  </si>
+  <si>
+    <t>Ўзгартириш
+(26.09.2024)
+ШНҚ 2.03.16-23</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.04.02-19</t>
+  </si>
+  <si>
+    <t>қўшимча 
+(05.01.2023)
+ШНҚ 2.04.02-2019</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.04.03-19</t>
+  </si>
+  <si>
+    <t>қўшимча 
+(05.01.23)
+ҚМҚ 2.04.03-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.04.05-22 </t>
+  </si>
+  <si>
+    <t>Пособие к 
+КМК 2.04.05-97</t>
+  </si>
+  <si>
+    <t>По проектированию новых энергосберегающих решений по отоплению, вентиляции и кондиционированию</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.04.09-21 </t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.04.17-19</t>
+  </si>
+  <si>
+    <t>ўзгартириш
+(05.04.2022)
+ҚМҚ 2.04.17-19</t>
+  </si>
+  <si>
+    <t>қўшимча 
+ (08.05.2023)
+ҚМҚ 2.04.17-19</t>
+  </si>
+  <si>
+    <t>қўшимча 
+(23.01.2024)
+ШНҚ 2.05.03-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.05.04-21 </t>
+  </si>
+  <si>
+    <t>қўшимча 
+(29.01.2025)
+ШНҚ 2.05.04-21</t>
+  </si>
+  <si>
+    <t>Магистрал қувурлар</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гидротехника иншоотлари. </t>
+  </si>
+  <si>
+    <t>ШНҚ 2.06.04-21</t>
+  </si>
+  <si>
+    <t>ўзгартириш 1
+(11.12.2002
+ҚМҚ 2.06.06.-98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.06.07-22 </t>
+  </si>
+  <si>
+    <t>Сув оқимини бошқариш учун сув омборлари. Лойиҳалаш талаблари</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ 2.06.15-21 </t>
+  </si>
+  <si>
+    <t>ШНҚ 2.07.06-24
+1-қисм</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.07.06-24
+2-қисм</t>
+  </si>
+  <si>
+    <t>ШНҚ 2.07.06-24
+3-қисм</t>
+  </si>
+  <si>
+    <t>Пособие к 
+ШНК 2.08.02-09</t>
+  </si>
+  <si>
+    <t>По проектированию новых энергосберегающих решений общественных зданий</t>
+  </si>
+  <si>
+    <t>ҚМҚ 2.09.01-19</t>
+  </si>
+  <si>
+    <t>Ўзгартириш №1 
+(09.10.2019)
+ШНҚ 2.09.20-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ШНҚ  2.09.22-22 </t>
+  </si>
+  <si>
+    <t>ШНҚ 3.01.04-19</t>
   </si>
 </sst>
 </file>
@@ -3541,7 +3741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="237">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4232,6 +4432,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10376,10 +10580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF6E116-BC46-4B94-9103-BC69973CC37A}">
-  <dimension ref="A1:N437"/>
+  <dimension ref="A1:G437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10505,7 +10709,7 @@
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="23" t="s">
-        <v>33</v>
+        <v>1021</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>33</v>
@@ -10771,7 +10975,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>658</v>
+        <v>1022</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
@@ -10780,6 +10984,9 @@
       <c r="F19" s="23" t="s">
         <v>83</v>
       </c>
+      <c r="G19" s="235" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="148" t="s">
@@ -10789,7 +10996,7 @@
         <v>87</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>88</v>
+        <v>1024</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
@@ -10843,7 +11050,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="148" t="s">
         <v>92</v>
       </c>
@@ -10851,7 +11058,7 @@
         <v>93</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>98</v>
+        <v>1025</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>102</v>
@@ -10871,7 +11078,7 @@
         <v>93</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>105</v>
+        <v>1026</v>
       </c>
       <c r="D24" s="22"/>
       <c r="E24" s="58" t="s">
@@ -10889,7 +11096,7 @@
         <v>93</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>108</v>
+        <v>1027</v>
       </c>
       <c r="D25" s="119" t="s">
         <v>108</v>
@@ -10910,7 +11117,7 @@
         <v>93</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>108</v>
+        <v>1028</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>111</v>
@@ -10921,32 +11128,24 @@
       <c r="F26" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="G26" s="161" t="s">
+      <c r="G26" s="163" t="s">
         <v>913</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="158" t="s">
-        <v>93</v>
-      </c>
+      <c r="A27" s="148"/>
+      <c r="B27" s="158"/>
       <c r="C27" s="22" t="s">
-        <v>808</v>
+        <v>1029</v>
       </c>
       <c r="D27" s="52"/>
-      <c r="E27" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="G27" s="161" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="E27" s="236" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F27" s="236"/>
+      <c r="G27" s="163"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="148" t="s">
         <v>92</v>
       </c>
@@ -10954,14 +11153,17 @@
         <v>93</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>117</v>
+        <v>1031</v>
+      </c>
+      <c r="D28" s="52"/>
+      <c r="E28" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="161" t="s">
+        <v>1006</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10972,19 +11174,14 @@
         <v>93</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="149" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="149" t="s">
-        <v>120</v>
-      </c>
-      <c r="G29" s="163" t="s">
-        <v>1013</v>
+        <v>116</v>
+      </c>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -10998,13 +11195,16 @@
         <v>119</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E30" s="149" t="s">
         <v>120</v>
       </c>
       <c r="F30" s="149" t="s">
         <v>120</v>
+      </c>
+      <c r="G30" s="163" t="s">
+        <v>1013</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11015,17 +11215,19 @@
         <v>93</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="F31" s="149" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="148" t="s">
         <v>92</v>
       </c>
@@ -11033,17 +11235,14 @@
         <v>93</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>126</v>
+        <v>1033</v>
       </c>
       <c r="D32" s="52"/>
-      <c r="E32" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="F32" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="G32" s="161" t="s">
-        <v>1005</v>
+      <c r="E32" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="65" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -11054,16 +11253,17 @@
         <v>93</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>128</v>
-      </c>
-      <c r="E33" s="159" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="159" t="s">
-        <v>129</v>
+        <v>1034</v>
+      </c>
+      <c r="D33" s="52"/>
+      <c r="E33" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" s="161" t="s">
+        <v>1005</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11077,16 +11277,13 @@
         <v>128</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E34" s="159" t="s">
         <v>129</v>
       </c>
       <c r="F34" s="159" t="s">
         <v>129</v>
-      </c>
-      <c r="G34" s="161" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11097,19 +11294,19 @@
         <v>93</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>135</v>
+        <v>1035</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E35" s="149" t="s">
-        <v>136</v>
-      </c>
-      <c r="F35" s="149" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="E35" s="159" t="s">
+        <v>129</v>
+      </c>
+      <c r="F35" s="159" t="s">
+        <v>129</v>
       </c>
       <c r="G35" s="161" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -11123,13 +11320,16 @@
         <v>135</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="E36" s="149" t="s">
         <v>136</v>
       </c>
       <c r="F36" s="149" t="s">
         <v>136</v>
+      </c>
+      <c r="G36" s="161" t="s">
+        <v>1003</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11140,20 +11340,19 @@
         <v>93</v>
       </c>
       <c r="C37" s="22" t="s">
-        <v>704</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>792</v>
-      </c>
-      <c r="G37" s="161" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="149" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="148" t="s">
         <v>92</v>
       </c>
@@ -11161,17 +11360,17 @@
         <v>93</v>
       </c>
       <c r="C38" s="22" t="s">
-        <v>856</v>
-      </c>
-      <c r="D38" s="52"/>
-      <c r="E38" s="43" t="s">
-        <v>857</v>
-      </c>
-      <c r="F38" s="43" t="s">
-        <v>857</v>
+        <v>704</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="F38" s="23" t="s">
+        <v>792</v>
       </c>
       <c r="G38" s="161" t="s">
-        <v>1002</v>
+        <v>914</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11182,17 +11381,17 @@
         <v>93</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="58" t="s">
-        <v>654</v>
-      </c>
-      <c r="F39" s="58" t="s">
-        <v>654</v>
+        <v>856</v>
+      </c>
+      <c r="D39" s="52"/>
+      <c r="E39" s="43" t="s">
+        <v>857</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>857</v>
       </c>
       <c r="G39" s="161" t="s">
-        <v>915</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11203,35 +11402,38 @@
         <v>93</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>705</v>
+        <v>145</v>
       </c>
       <c r="D40" s="22"/>
       <c r="E40" s="58" t="s">
-        <v>150</v>
+        <v>654</v>
       </c>
       <c r="F40" s="58" t="s">
-        <v>150</v>
+        <v>654</v>
       </c>
       <c r="G40" s="161" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="149" t="s">
-        <v>153</v>
+      <c r="B41" s="158" t="s">
+        <v>93</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>154</v>
-      </c>
-      <c r="D41" s="52"/>
-      <c r="E41" s="65" t="s">
-        <v>155</v>
-      </c>
-      <c r="F41" s="65" t="s">
-        <v>155</v>
+        <v>705</v>
+      </c>
+      <c r="D41" s="22"/>
+      <c r="E41" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="F41" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="G41" s="161" t="s">
+        <v>916</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11242,14 +11444,14 @@
         <v>153</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>793</v>
-      </c>
-      <c r="D42" s="119"/>
-      <c r="E42" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="F42" s="53" t="s">
-        <v>158</v>
+        <v>1037</v>
+      </c>
+      <c r="D42" s="52"/>
+      <c r="E42" s="65" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="65" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11260,17 +11462,14 @@
         <v>153</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>708</v>
+        <v>1038</v>
       </c>
       <c r="D43" s="119"/>
       <c r="E43" s="53" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="161" t="s">
-        <v>917</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11281,17 +11480,17 @@
         <v>153</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>692</v>
-      </c>
-      <c r="D44" s="22"/>
-      <c r="E44" s="58" t="s">
-        <v>689</v>
-      </c>
-      <c r="F44" s="58" t="s">
-        <v>689</v>
+        <v>708</v>
+      </c>
+      <c r="D44" s="119"/>
+      <c r="E44" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="F44" s="53" t="s">
+        <v>160</v>
       </c>
       <c r="G44" s="161" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11299,20 +11498,20 @@
         <v>92</v>
       </c>
       <c r="B45" s="149" t="s">
-        <v>901</v>
+        <v>153</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="58" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="F45" s="58" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="G45" s="161" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11323,17 +11522,17 @@
         <v>901</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="D46" s="22"/>
       <c r="E46" s="58" t="s">
-        <v>171</v>
+        <v>696</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>171</v>
+        <v>696</v>
       </c>
       <c r="G46" s="161" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11344,17 +11543,17 @@
         <v>901</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>821</v>
+        <v>699</v>
       </c>
       <c r="D47" s="22"/>
       <c r="E47" s="58" t="s">
-        <v>825</v>
+        <v>171</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>825</v>
+        <v>171</v>
       </c>
       <c r="G47" s="161" t="s">
-        <v>1001</v>
+        <v>920</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11365,17 +11564,17 @@
         <v>901</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>738</v>
+        <v>1039</v>
       </c>
       <c r="D48" s="22"/>
       <c r="E48" s="58" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="F48" s="58" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="G48" s="161" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11386,17 +11585,17 @@
         <v>901</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>178</v>
+        <v>738</v>
       </c>
       <c r="D49" s="22"/>
-      <c r="E49" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="23" t="s">
-        <v>179</v>
+      <c r="E49" s="58" t="s">
+        <v>739</v>
+      </c>
+      <c r="F49" s="58" t="s">
+        <v>739</v>
       </c>
       <c r="G49" s="161" t="s">
-        <v>921</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -11407,17 +11606,17 @@
         <v>901</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>822</v>
+        <v>178</v>
       </c>
       <c r="D50" s="22"/>
-      <c r="E50" s="58" t="s">
-        <v>824</v>
-      </c>
-      <c r="F50" s="58" t="s">
-        <v>824</v>
+      <c r="E50" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>179</v>
       </c>
       <c r="G50" s="161" t="s">
-        <v>999</v>
+        <v>921</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11428,17 +11627,17 @@
         <v>901</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>711</v>
+        <v>1040</v>
       </c>
       <c r="D51" s="22"/>
-      <c r="E51" s="23" t="s">
-        <v>712</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>712</v>
+      <c r="E51" s="58" t="s">
+        <v>824</v>
+      </c>
+      <c r="F51" s="58" t="s">
+        <v>824</v>
       </c>
       <c r="G51" s="161" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -11449,17 +11648,17 @@
         <v>901</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>834</v>
+        <v>711</v>
       </c>
       <c r="D52" s="22"/>
-      <c r="E52" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="F52" s="58" t="s">
-        <v>190</v>
+      <c r="E52" s="23" t="s">
+        <v>712</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>712</v>
       </c>
       <c r="G52" s="161" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11470,14 +11669,17 @@
         <v>901</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>191</v>
+        <v>1041</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F53" s="58" t="s">
-        <v>192</v>
+        <v>190</v>
+      </c>
+      <c r="G53" s="161" t="s">
+        <v>997</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11488,17 +11690,14 @@
         <v>901</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>865</v>
-      </c>
-      <c r="D54" s="52"/>
-      <c r="E54" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="F54" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G54" s="161" t="s">
-        <v>996</v>
+        <v>191</v>
+      </c>
+      <c r="D54" s="22"/>
+      <c r="E54" s="58" t="s">
+        <v>192</v>
+      </c>
+      <c r="F54" s="58" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -11509,36 +11708,31 @@
         <v>901</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>198</v>
-      </c>
-      <c r="D55" s="22"/>
-      <c r="E55" s="113" t="s">
-        <v>199</v>
-      </c>
-      <c r="F55" s="113" t="s">
-        <v>199</v>
+        <v>865</v>
+      </c>
+      <c r="D55" s="52"/>
+      <c r="E55" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G55" s="161" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="149" t="s">
-        <v>901</v>
-      </c>
+      <c r="A56" s="148"/>
+      <c r="B56" s="149"/>
       <c r="C56" s="22" t="s">
-        <v>786</v>
+        <v>1042</v>
       </c>
       <c r="D56" s="52"/>
       <c r="E56" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="F56" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="G56" s="161" t="s">
-        <v>922</v>
-      </c>
+        <v>1043</v>
+      </c>
+      <c r="F56" s="65"/>
+      <c r="G56" s="161"/>
     </row>
     <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A57" s="148" t="s">
@@ -11548,16 +11742,14 @@
         <v>901</v>
       </c>
       <c r="C57" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>202</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D57" s="22"/>
       <c r="E57" s="113" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F57" s="113" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -11568,37 +11760,37 @@
         <v>901</v>
       </c>
       <c r="C58" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="D58" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E58" s="113" t="s">
-        <v>203</v>
-      </c>
-      <c r="F58" s="113" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+      <c r="D58" s="52"/>
+      <c r="E58" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="F58" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="G58" s="161" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="148" t="s">
         <v>92</v>
       </c>
       <c r="B59" s="149" t="s">
         <v>901</v>
       </c>
-      <c r="C59" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="D59" s="119"/>
-      <c r="E59" s="120" t="s">
-        <v>652</v>
-      </c>
-      <c r="F59" s="120" t="s">
-        <v>652</v>
-      </c>
-      <c r="G59" s="161" t="s">
-        <v>923</v>
+      <c r="C59" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="E59" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="113" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -11609,19 +11801,16 @@
         <v>901</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>209</v>
+        <v>1044</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="E60" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="F60" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="G60" s="161" t="s">
-        <v>924</v>
+        <v>164</v>
+      </c>
+      <c r="E60" s="113" t="s">
+        <v>203</v>
+      </c>
+      <c r="F60" s="113" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -11631,17 +11820,18 @@
       <c r="B61" s="149" t="s">
         <v>901</v>
       </c>
-      <c r="C61" s="22" t="s">
-        <v>209</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="E61" s="149" t="s">
-        <v>210</v>
-      </c>
-      <c r="F61" s="149" t="s">
-        <v>210</v>
+      <c r="C61" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="119"/>
+      <c r="E61" s="120" t="s">
+        <v>652</v>
+      </c>
+      <c r="F61" s="120" t="s">
+        <v>652</v>
+      </c>
+      <c r="G61" s="161" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11649,20 +11839,22 @@
         <v>92</v>
       </c>
       <c r="B62" s="149" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="58" t="s">
-        <v>866</v>
-      </c>
-      <c r="F62" s="58" t="s">
-        <v>866</v>
+        <v>209</v>
+      </c>
+      <c r="D62" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="149" t="s">
+        <v>210</v>
+      </c>
+      <c r="F62" s="149" t="s">
+        <v>210</v>
       </c>
       <c r="G62" s="161" t="s">
-        <v>995</v>
+        <v>924</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11670,22 +11862,19 @@
         <v>92</v>
       </c>
       <c r="B63" s="149" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>218</v>
+        <v>1045</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>218</v>
+        <v>765</v>
       </c>
       <c r="E63" s="149" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="F63" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="G63" s="161" t="s">
-        <v>994</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -11696,19 +11885,20 @@
         <v>902</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="149" t="s">
-        <v>219</v>
-      </c>
-      <c r="F64" s="149" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>867</v>
+      </c>
+      <c r="D64" s="22"/>
+      <c r="E64" s="58" t="s">
+        <v>866</v>
+      </c>
+      <c r="F64" s="58" t="s">
+        <v>866</v>
+      </c>
+      <c r="G64" s="161" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A65" s="148" t="s">
         <v>92</v>
       </c>
@@ -11716,19 +11906,22 @@
         <v>902</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>225</v>
+        <v>1046</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E65" s="65" t="s">
-        <v>226</v>
-      </c>
-      <c r="F65" s="65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="E65" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="F65" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="G65" s="161" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A66" s="148" t="s">
         <v>92</v>
       </c>
@@ -11736,19 +11929,19 @@
         <v>902</v>
       </c>
       <c r="C66" s="22" t="s">
-        <v>225</v>
+        <v>1047</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="E66" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="F66" s="65" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="E66" s="149" t="s">
+        <v>219</v>
+      </c>
+      <c r="F66" s="149" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="148" t="s">
         <v>92</v>
       </c>
@@ -11756,17 +11949,19 @@
         <v>902</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>230</v>
-      </c>
-      <c r="D67" s="22"/>
-      <c r="E67" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+      <c r="D67" s="22" t="s">
+        <v>225</v>
+      </c>
+      <c r="E67" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F67" s="65" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A68" s="148" t="s">
         <v>92</v>
       </c>
@@ -11774,20 +11969,19 @@
         <v>902</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>836</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="F68" s="58" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68" s="161" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="E68" s="65" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="65" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="148" t="s">
         <v>92</v>
       </c>
@@ -11795,20 +11989,17 @@
         <v>902</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>754</v>
+        <v>230</v>
       </c>
       <c r="D69" s="22"/>
       <c r="E69" s="23" t="s">
-        <v>755</v>
+        <v>231</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>755</v>
-      </c>
-      <c r="G69" s="161" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="148" t="s">
         <v>92</v>
       </c>
@@ -11816,41 +12007,33 @@
         <v>902</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>659</v>
+        <v>1050</v>
       </c>
       <c r="D70" s="22"/>
       <c r="E70" s="58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F70" s="58" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G70" s="161" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B71" s="149" t="s">
-        <v>902</v>
-      </c>
+        <v>993</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="148"/>
+      <c r="B71" s="149"/>
       <c r="C71" s="22" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="119"/>
-      <c r="E71" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="F71" s="53" t="s">
-        <v>647</v>
-      </c>
-      <c r="G71" s="161" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+      <c r="D71" s="22"/>
+      <c r="E71" s="58" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F71" s="58"/>
+      <c r="G71" s="161"/>
+    </row>
+    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A72" s="148" t="s">
         <v>92</v>
       </c>
@@ -11858,20 +12041,20 @@
         <v>902</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>826</v>
+        <v>754</v>
       </c>
       <c r="D72" s="22"/>
-      <c r="E72" s="58" t="s">
-        <v>827</v>
-      </c>
-      <c r="F72" s="58" t="s">
-        <v>827</v>
+      <c r="E72" s="23" t="s">
+        <v>755</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>755</v>
       </c>
       <c r="G72" s="161" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A73" s="148" t="s">
         <v>92</v>
       </c>
@@ -11879,20 +12062,20 @@
         <v>902</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>746</v>
+        <v>659</v>
       </c>
       <c r="D73" s="22"/>
-      <c r="E73" s="23" t="s">
-        <v>747</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>747</v>
+      <c r="E73" s="58" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73" s="58" t="s">
+        <v>242</v>
       </c>
       <c r="G73" s="161" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="148" t="s">
         <v>92</v>
       </c>
@@ -11900,20 +12083,20 @@
         <v>902</v>
       </c>
       <c r="C74" s="22" t="s">
-        <v>660</v>
-      </c>
-      <c r="D74" s="22"/>
-      <c r="E74" s="58" t="s">
-        <v>255</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>255</v>
+        <v>245</v>
+      </c>
+      <c r="D74" s="119"/>
+      <c r="E74" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>647</v>
       </c>
       <c r="G74" s="161" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A75" s="148" t="s">
         <v>92</v>
       </c>
@@ -11921,20 +12104,20 @@
         <v>902</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>661</v>
+        <v>1053</v>
       </c>
       <c r="D75" s="22"/>
-      <c r="E75" s="23" t="s">
-        <v>653</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>653</v>
+      <c r="E75" s="58" t="s">
+        <v>827</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>827</v>
       </c>
       <c r="G75" s="161" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A76" s="148" t="s">
         <v>92</v>
       </c>
@@ -11942,20 +12125,20 @@
         <v>902</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="D76" s="22"/>
-      <c r="E76" s="58" t="s">
-        <v>262</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>262</v>
+      <c r="E76" s="23" t="s">
+        <v>747</v>
+      </c>
+      <c r="F76" s="23" t="s">
+        <v>747</v>
       </c>
       <c r="G76" s="161" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A77" s="148" t="s">
         <v>92</v>
       </c>
@@ -11963,20 +12146,20 @@
         <v>902</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D77" s="22"/>
-      <c r="E77" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>265</v>
+      <c r="E77" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="F77" s="58" t="s">
+        <v>255</v>
       </c>
       <c r="G77" s="161" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="148" t="s">
         <v>92</v>
       </c>
@@ -11984,20 +12167,20 @@
         <v>902</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>269</v>
-      </c>
-      <c r="D78" s="24"/>
-      <c r="E78" s="152" t="s">
-        <v>270</v>
-      </c>
-      <c r="F78" s="152" t="s">
-        <v>270</v>
+        <v>661</v>
+      </c>
+      <c r="D78" s="22"/>
+      <c r="E78" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>653</v>
       </c>
       <c r="G78" s="161" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A79" s="148" t="s">
         <v>92</v>
       </c>
@@ -12005,23 +12188,20 @@
         <v>902</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>273</v>
-      </c>
-      <c r="D79" s="24"/>
-      <c r="E79" s="152" t="s">
-        <v>649</v>
-      </c>
-      <c r="F79" s="152" t="s">
-        <v>649</v>
+        <v>787</v>
+      </c>
+      <c r="D79" s="22"/>
+      <c r="E79" s="58" t="s">
+        <v>262</v>
+      </c>
+      <c r="F79" s="58" t="s">
+        <v>262</v>
       </c>
       <c r="G79" s="161" t="s">
-        <v>930</v>
-      </c>
-      <c r="N79" s="1" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="148" t="s">
         <v>92</v>
       </c>
@@ -12029,18 +12209,18 @@
         <v>902</v>
       </c>
       <c r="C80" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D80" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="E80" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="F80" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="G80" s="161"/>
+        <v>662</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G80" s="161" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="81" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="148" t="s">
@@ -12050,16 +12230,17 @@
         <v>902</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D81" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E81" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="F81" s="160" t="s">
-        <v>276</v>
+        <v>269</v>
+      </c>
+      <c r="D81" s="24"/>
+      <c r="E81" s="152" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" s="152" t="s">
+        <v>270</v>
+      </c>
+      <c r="G81" s="161" t="s">
+        <v>929</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="75" x14ac:dyDescent="0.25">
@@ -12070,19 +12251,17 @@
         <v>902</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="D82" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E82" s="160" t="s">
-        <v>276</v>
-      </c>
-      <c r="F82" s="160" t="s">
-        <v>276</v>
+        <v>273</v>
+      </c>
+      <c r="D82" s="24"/>
+      <c r="E82" s="152" t="s">
+        <v>649</v>
+      </c>
+      <c r="F82" s="152" t="s">
+        <v>649</v>
       </c>
       <c r="G82" s="161" t="s">
-        <v>987</v>
+        <v>930</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -12093,18 +12272,18 @@
         <v>902</v>
       </c>
       <c r="C83" s="22" t="s">
-        <v>663</v>
-      </c>
-      <c r="D83" s="22"/>
-      <c r="E83" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="F83" s="58" t="s">
-        <v>281</v>
-      </c>
-      <c r="G83" s="161" t="s">
-        <v>931</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="E83" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="F83" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="G83" s="161"/>
     </row>
     <row r="84" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="148" t="s">
@@ -12114,17 +12293,16 @@
         <v>902</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>664</v>
-      </c>
-      <c r="D84" s="22"/>
-      <c r="E84" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>645</v>
-      </c>
-      <c r="G84" s="161" t="s">
-        <v>932</v>
+        <v>1055</v>
+      </c>
+      <c r="D84" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="E84" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" s="160" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12132,20 +12310,22 @@
         <v>92</v>
       </c>
       <c r="B85" s="149" t="s">
-        <v>287</v>
+        <v>902</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>811</v>
-      </c>
-      <c r="D85" s="52"/>
-      <c r="E85" s="65" t="s">
-        <v>812</v>
-      </c>
-      <c r="F85" s="65" t="s">
-        <v>812</v>
+        <v>1056</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E85" s="160" t="s">
+        <v>276</v>
+      </c>
+      <c r="F85" s="160" t="s">
+        <v>276</v>
       </c>
       <c r="G85" s="161" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12153,20 +12333,20 @@
         <v>92</v>
       </c>
       <c r="B86" s="149" t="s">
-        <v>287</v>
+        <v>902</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>768</v>
-      </c>
-      <c r="D86" s="119"/>
-      <c r="E86" s="119" t="s">
-        <v>769</v>
-      </c>
-      <c r="F86" s="119" t="s">
-        <v>769</v>
+        <v>663</v>
+      </c>
+      <c r="D86" s="22"/>
+      <c r="E86" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F86" s="58" t="s">
+        <v>281</v>
       </c>
       <c r="G86" s="161" t="s">
-        <v>985</v>
+        <v>931</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12174,22 +12354,20 @@
         <v>92</v>
       </c>
       <c r="B87" s="149" t="s">
-        <v>287</v>
+        <v>902</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="D87" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="E87" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="F87" s="53" t="s">
-        <v>296</v>
+        <v>664</v>
+      </c>
+      <c r="D87" s="22"/>
+      <c r="E87" s="23" t="s">
+        <v>645</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>645</v>
       </c>
       <c r="G87" s="161" t="s">
-        <v>984</v>
+        <v>932</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12200,19 +12378,17 @@
         <v>287</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="F88" s="53" t="s">
-        <v>296</v>
+        <v>811</v>
+      </c>
+      <c r="D88" s="52"/>
+      <c r="E88" s="65" t="s">
+        <v>812</v>
+      </c>
+      <c r="F88" s="65" t="s">
+        <v>812</v>
       </c>
       <c r="G88" s="161" t="s">
-        <v>933</v>
+        <v>986</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12223,17 +12399,17 @@
         <v>287</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>838</v>
-      </c>
-      <c r="D89" s="22"/>
-      <c r="E89" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>303</v>
+        <v>768</v>
+      </c>
+      <c r="D89" s="119"/>
+      <c r="E89" s="119" t="s">
+        <v>769</v>
+      </c>
+      <c r="F89" s="119" t="s">
+        <v>769</v>
       </c>
       <c r="G89" s="161" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12244,17 +12420,19 @@
         <v>287</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="D90" s="119"/>
+        <v>295</v>
+      </c>
+      <c r="D90" s="22" t="s">
+        <v>295</v>
+      </c>
       <c r="E90" s="53" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F90" s="53" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="G90" s="161" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12264,18 +12442,20 @@
       <c r="B91" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="C91" s="119" t="s">
-        <v>815</v>
-      </c>
-      <c r="D91" s="119"/>
+      <c r="C91" s="22" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="E91" s="53" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="F91" s="53" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="G91" s="161" t="s">
-        <v>981</v>
+        <v>933</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12286,39 +12466,31 @@
         <v>287</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>875</v>
+        <v>1058</v>
       </c>
       <c r="D92" s="22"/>
-      <c r="E92" s="58" t="s">
-        <v>876</v>
-      </c>
-      <c r="F92" s="58" t="s">
-        <v>876</v>
+      <c r="E92" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>303</v>
       </c>
       <c r="G92" s="161" t="s">
-        <v>980</v>
+        <v>983</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" s="149" t="s">
-        <v>287</v>
-      </c>
+      <c r="A93" s="148"/>
+      <c r="B93" s="149"/>
       <c r="C93" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="D93" s="22"/>
-      <c r="E93" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>315</v>
-      </c>
-      <c r="G93" s="161" t="s">
-        <v>979</v>
-      </c>
+        <v>1059</v>
+      </c>
+      <c r="D93" s="119"/>
+      <c r="E93" s="120" t="s">
+        <v>303</v>
+      </c>
+      <c r="F93" s="120"/>
+      <c r="G93" s="161"/>
     </row>
     <row r="94" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="148" t="s">
@@ -12328,17 +12500,17 @@
         <v>287</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>318</v>
-      </c>
-      <c r="D94" s="22"/>
-      <c r="E94" s="58" t="s">
-        <v>319</v>
-      </c>
-      <c r="F94" s="58" t="s">
-        <v>319</v>
+        <v>801</v>
+      </c>
+      <c r="D94" s="119"/>
+      <c r="E94" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="F94" s="53" t="s">
+        <v>307</v>
       </c>
       <c r="G94" s="161" t="s">
-        <v>934</v>
+        <v>982</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -12348,15 +12520,18 @@
       <c r="B95" s="149" t="s">
         <v>287</v>
       </c>
-      <c r="C95" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="D95" s="52"/>
-      <c r="E95" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="F95" s="43" t="s">
-        <v>324</v>
+      <c r="C95" s="119" t="s">
+        <v>815</v>
+      </c>
+      <c r="D95" s="119"/>
+      <c r="E95" s="53" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F95" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="G95" s="161" t="s">
+        <v>981</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12367,17 +12542,17 @@
         <v>287</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>665</v>
+        <v>875</v>
       </c>
       <c r="D96" s="22"/>
-      <c r="E96" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>328</v>
+      <c r="E96" s="58" t="s">
+        <v>876</v>
+      </c>
+      <c r="F96" s="58" t="s">
+        <v>876</v>
       </c>
       <c r="G96" s="161" t="s">
-        <v>935</v>
+        <v>980</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12385,20 +12560,20 @@
         <v>92</v>
       </c>
       <c r="B97" s="149" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>879</v>
+        <v>314</v>
       </c>
       <c r="D97" s="22"/>
-      <c r="E97" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>333</v>
+      <c r="E97" s="58" t="s">
+        <v>315</v>
+      </c>
+      <c r="F97" s="58" t="s">
+        <v>315</v>
       </c>
       <c r="G97" s="161" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12406,20 +12581,20 @@
         <v>92</v>
       </c>
       <c r="B98" s="149" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>666</v>
-      </c>
-      <c r="D98" s="119"/>
-      <c r="E98" s="53" t="s">
-        <v>650</v>
-      </c>
-      <c r="F98" s="53" t="s">
-        <v>650</v>
+        <v>318</v>
+      </c>
+      <c r="D98" s="22"/>
+      <c r="E98" s="58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>319</v>
       </c>
       <c r="G98" s="161" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12427,17 +12602,20 @@
         <v>92</v>
       </c>
       <c r="B99" s="149" t="s">
-        <v>331</v>
+        <v>287</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>338</v>
+        <v>665</v>
       </c>
       <c r="D99" s="22"/>
       <c r="E99" s="23" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>339</v>
+        <v>328</v>
+      </c>
+      <c r="G99" s="161" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12448,17 +12626,17 @@
         <v>331</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>678</v>
+        <v>879</v>
       </c>
       <c r="D100" s="22"/>
       <c r="E100" s="23" t="s">
-        <v>679</v>
+        <v>1061</v>
       </c>
       <c r="F100" s="23" t="s">
-        <v>679</v>
+        <v>333</v>
       </c>
       <c r="G100" s="161" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12469,17 +12647,17 @@
         <v>331</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D101" s="119"/>
       <c r="E101" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F101" s="53" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G101" s="161" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12490,19 +12668,14 @@
         <v>331</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D102" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="E102" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="F102" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="G102" s="161" t="s">
-        <v>977</v>
+        <v>338</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12513,16 +12686,17 @@
         <v>331</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="D103" s="22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E103" s="149" t="s">
-        <v>345</v>
-      </c>
-      <c r="F103" s="149" t="s">
-        <v>345</v>
+        <v>1062</v>
+      </c>
+      <c r="D103" s="22"/>
+      <c r="E103" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>679</v>
+      </c>
+      <c r="G103" s="161" t="s">
+        <v>937</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12533,17 +12707,17 @@
         <v>331</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>840</v>
-      </c>
-      <c r="D104" s="22"/>
-      <c r="E104" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>349</v>
+        <v>667</v>
+      </c>
+      <c r="D104" s="119"/>
+      <c r="E104" s="53" t="s">
+        <v>651</v>
+      </c>
+      <c r="F104" s="53" t="s">
+        <v>651</v>
       </c>
       <c r="G104" s="161" t="s">
-        <v>976</v>
+        <v>938</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12554,20 +12728,22 @@
         <v>331</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>350</v>
-      </c>
-      <c r="D105" s="22"/>
-      <c r="E105" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>351</v>
+        <v>344</v>
+      </c>
+      <c r="D105" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E105" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="F105" s="149" t="s">
+        <v>345</v>
       </c>
       <c r="G105" s="161" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="148" t="s">
         <v>92</v>
       </c>
@@ -12575,17 +12751,16 @@
         <v>331</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="D106" s="22"/>
-      <c r="E106" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>354</v>
-      </c>
-      <c r="G106" s="161" t="s">
-        <v>974</v>
+        <v>1063</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" s="149" t="s">
+        <v>345</v>
+      </c>
+      <c r="F106" s="149" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12596,17 +12771,17 @@
         <v>331</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>798</v>
+        <v>1064</v>
       </c>
       <c r="D107" s="22"/>
       <c r="E107" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="G107" s="161" t="s">
-        <v>973</v>
+        <v>976</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12617,20 +12792,20 @@
         <v>331</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>842</v>
-      </c>
-      <c r="D108" s="24"/>
-      <c r="E108" s="153" t="s">
-        <v>843</v>
-      </c>
-      <c r="F108" s="153" t="s">
-        <v>843</v>
+        <v>350</v>
+      </c>
+      <c r="D108" s="22"/>
+      <c r="E108" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>351</v>
       </c>
       <c r="G108" s="161" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="148" t="s">
         <v>92</v>
       </c>
@@ -12638,59 +12813,59 @@
         <v>331</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>360</v>
-      </c>
-      <c r="D109" s="24"/>
-      <c r="E109" s="154" t="s">
-        <v>361</v>
-      </c>
-      <c r="F109" s="154" t="s">
-        <v>361</v>
+        <v>353</v>
+      </c>
+      <c r="D109" s="22"/>
+      <c r="E109" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>354</v>
       </c>
       <c r="G109" s="161" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="148" t="s">
         <v>92</v>
       </c>
       <c r="B110" s="149" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>641</v>
-      </c>
-      <c r="D110" s="119"/>
-      <c r="E110" s="119" t="s">
-        <v>365</v>
-      </c>
-      <c r="F110" s="119" t="s">
-        <v>365</v>
+        <v>798</v>
+      </c>
+      <c r="D110" s="22"/>
+      <c r="E110" s="23" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>357</v>
       </c>
       <c r="G110" s="161" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="148" t="s">
         <v>92</v>
       </c>
       <c r="B111" s="149" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>852</v>
-      </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="23" t="s">
-        <v>853</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>853</v>
+        <v>1066</v>
+      </c>
+      <c r="D111" s="24"/>
+      <c r="E111" s="153" t="s">
+        <v>843</v>
+      </c>
+      <c r="F111" s="153" t="s">
+        <v>843</v>
       </c>
       <c r="G111" s="161" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -12698,20 +12873,20 @@
         <v>92</v>
       </c>
       <c r="B112" s="149" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="C112" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>372</v>
+        <v>360</v>
+      </c>
+      <c r="D112" s="24"/>
+      <c r="E112" s="154" t="s">
+        <v>361</v>
+      </c>
+      <c r="F112" s="154" t="s">
+        <v>361</v>
       </c>
       <c r="G112" s="161" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -12722,17 +12897,20 @@
         <v>364</v>
       </c>
       <c r="C113" s="22" t="s">
-        <v>794</v>
-      </c>
-      <c r="D113" s="52"/>
-      <c r="E113" s="43" t="s">
-        <v>375</v>
-      </c>
-      <c r="F113" s="43" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+      <c r="D113" s="119"/>
+      <c r="E113" s="119" t="s">
+        <v>365</v>
+      </c>
+      <c r="F113" s="119" t="s">
+        <v>365</v>
+      </c>
+      <c r="G113" s="161" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="148" t="s">
         <v>92</v>
       </c>
@@ -12740,17 +12918,20 @@
         <v>364</v>
       </c>
       <c r="C114" s="22" t="s">
-        <v>795</v>
-      </c>
-      <c r="D114" s="52"/>
-      <c r="E114" s="43" t="s">
-        <v>378</v>
-      </c>
-      <c r="F114" s="43" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+      <c r="D114" s="22"/>
+      <c r="E114" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>853</v>
+      </c>
+      <c r="G114" s="161" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="148" t="s">
         <v>92</v>
       </c>
@@ -12758,17 +12939,17 @@
         <v>364</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>686</v>
-      </c>
-      <c r="D115" s="119"/>
-      <c r="E115" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="F115" s="53" t="s">
-        <v>379</v>
+        <v>371</v>
+      </c>
+      <c r="D115" s="22"/>
+      <c r="E115" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>372</v>
       </c>
       <c r="G115" s="161" t="s">
-        <v>940</v>
+        <v>969</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12778,18 +12959,15 @@
       <c r="B116" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="C116" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="D116" s="24"/>
-      <c r="E116" s="155" t="s">
-        <v>380</v>
-      </c>
-      <c r="F116" s="155" t="s">
-        <v>380</v>
-      </c>
-      <c r="G116" s="161" t="s">
-        <v>940</v>
+      <c r="C116" s="22" t="s">
+        <v>794</v>
+      </c>
+      <c r="D116" s="52"/>
+      <c r="E116" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="F116" s="43" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -12799,18 +12977,15 @@
       <c r="B117" s="149" t="s">
         <v>364</v>
       </c>
-      <c r="C117" s="24" t="s">
-        <v>686</v>
-      </c>
-      <c r="D117" s="24"/>
-      <c r="E117" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="F117" s="156" t="s">
-        <v>381</v>
-      </c>
-      <c r="G117" s="161" t="s">
-        <v>940</v>
+      <c r="C117" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="D117" s="52"/>
+      <c r="E117" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="F117" s="43" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12818,20 +12993,20 @@
         <v>92</v>
       </c>
       <c r="B118" s="149" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>727</v>
+        <v>1067</v>
       </c>
       <c r="D118" s="119"/>
       <c r="E118" s="53" t="s">
-        <v>728</v>
+        <v>379</v>
       </c>
       <c r="F118" s="53" t="s">
-        <v>728</v>
+        <v>379</v>
       </c>
       <c r="G118" s="161" t="s">
-        <v>968</v>
+        <v>940</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12839,20 +13014,20 @@
         <v>92</v>
       </c>
       <c r="B119" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="C119" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="D119" s="119"/>
-      <c r="E119" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="F119" s="53" t="s">
-        <v>386</v>
+        <v>364</v>
+      </c>
+      <c r="C119" s="24" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D119" s="24"/>
+      <c r="E119" s="155" t="s">
+        <v>380</v>
+      </c>
+      <c r="F119" s="155" t="s">
+        <v>380</v>
       </c>
       <c r="G119" s="161" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12860,20 +13035,20 @@
         <v>92</v>
       </c>
       <c r="B120" s="149" t="s">
-        <v>382</v>
-      </c>
-      <c r="C120" s="22" t="s">
-        <v>389</v>
-      </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>644</v>
+        <v>364</v>
+      </c>
+      <c r="C120" s="24" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D120" s="24"/>
+      <c r="E120" s="156" t="s">
+        <v>381</v>
+      </c>
+      <c r="F120" s="156" t="s">
+        <v>381</v>
       </c>
       <c r="G120" s="161" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12884,17 +13059,17 @@
         <v>382</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="D121" s="119"/>
-      <c r="E121" s="120" t="s">
-        <v>393</v>
-      </c>
-      <c r="F121" s="120" t="s">
-        <v>393</v>
+      <c r="E121" s="53" t="s">
+        <v>728</v>
+      </c>
+      <c r="F121" s="53" t="s">
+        <v>728</v>
       </c>
       <c r="G121" s="161" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12905,39 +13080,31 @@
         <v>382</v>
       </c>
       <c r="C122" s="22" t="s">
-        <v>845</v>
-      </c>
-      <c r="D122" s="22"/>
-      <c r="E122" s="58" t="s">
-        <v>846</v>
-      </c>
-      <c r="F122" s="58" t="s">
-        <v>846</v>
+        <v>385</v>
+      </c>
+      <c r="D122" s="119"/>
+      <c r="E122" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="F122" s="53" t="s">
+        <v>386</v>
       </c>
       <c r="G122" s="161" t="s">
-        <v>966</v>
+        <v>941</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="148" t="s">
-        <v>92</v>
-      </c>
-      <c r="B123" s="149" t="s">
-        <v>382</v>
-      </c>
+      <c r="A123" s="148"/>
+      <c r="B123" s="149"/>
       <c r="C123" s="22" t="s">
-        <v>847</v>
-      </c>
-      <c r="D123" s="22"/>
-      <c r="E123" s="58" t="s">
-        <v>848</v>
-      </c>
-      <c r="F123" s="58" t="s">
-        <v>848</v>
-      </c>
-      <c r="G123" s="161" t="s">
-        <v>965</v>
-      </c>
+        <v>1070</v>
+      </c>
+      <c r="D123" s="119"/>
+      <c r="E123" s="53" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F123" s="53"/>
+      <c r="G123" s="161"/>
     </row>
     <row r="124" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="148" t="s">
@@ -12947,17 +13114,17 @@
         <v>382</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="D124" s="22"/>
-      <c r="E124" s="58" t="s">
-        <v>403</v>
-      </c>
-      <c r="F124" s="58" t="s">
-        <v>403</v>
+      <c r="E124" s="23" t="s">
+        <v>644</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>644</v>
       </c>
       <c r="G124" s="161" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12968,14 +13135,17 @@
         <v>382</v>
       </c>
       <c r="C125" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="D125" s="22"/>
-      <c r="E125" s="58" t="s">
-        <v>407</v>
-      </c>
-      <c r="F125" s="58" t="s">
-        <v>407</v>
+        <v>731</v>
+      </c>
+      <c r="D125" s="119"/>
+      <c r="E125" s="120" t="s">
+        <v>393</v>
+      </c>
+      <c r="F125" s="120" t="s">
+        <v>393</v>
+      </c>
+      <c r="G125" s="161" t="s">
+        <v>967</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -12986,17 +13156,17 @@
         <v>382</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>715</v>
+        <v>845</v>
       </c>
       <c r="D126" s="22"/>
-      <c r="E126" s="157" t="s">
-        <v>410</v>
-      </c>
-      <c r="F126" s="157" t="s">
-        <v>410</v>
+      <c r="E126" s="58" t="s">
+        <v>846</v>
+      </c>
+      <c r="F126" s="58" t="s">
+        <v>846</v>
       </c>
       <c r="G126" s="161" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13007,20 +13177,20 @@
         <v>382</v>
       </c>
       <c r="C127" s="22" t="s">
-        <v>758</v>
+        <v>847</v>
       </c>
       <c r="D127" s="22"/>
-      <c r="E127" s="113" t="s">
-        <v>411</v>
-      </c>
-      <c r="F127" s="113" t="s">
-        <v>411</v>
+      <c r="E127" s="58" t="s">
+        <v>848</v>
+      </c>
+      <c r="F127" s="58" t="s">
+        <v>848</v>
       </c>
       <c r="G127" s="161" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A128" s="148" t="s">
         <v>92</v>
       </c>
@@ -13028,17 +13198,17 @@
         <v>382</v>
       </c>
       <c r="C128" s="22" t="s">
-        <v>890</v>
+        <v>402</v>
       </c>
       <c r="D128" s="22"/>
-      <c r="E128" s="156" t="s">
-        <v>891</v>
-      </c>
-      <c r="F128" s="156" t="s">
-        <v>891</v>
+      <c r="E128" s="58" t="s">
+        <v>403</v>
+      </c>
+      <c r="F128" s="58" t="s">
+        <v>403</v>
       </c>
       <c r="G128" s="161" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13046,17 +13216,17 @@
         <v>92</v>
       </c>
       <c r="B129" s="149" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C129" s="22" t="s">
-        <v>425</v>
-      </c>
-      <c r="D129" s="52"/>
-      <c r="E129" s="43" t="s">
-        <v>426</v>
-      </c>
-      <c r="F129" s="43" t="s">
-        <v>426</v>
+        <v>406</v>
+      </c>
+      <c r="D129" s="22"/>
+      <c r="E129" s="58" t="s">
+        <v>407</v>
+      </c>
+      <c r="F129" s="58" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -13064,20 +13234,20 @@
         <v>92</v>
       </c>
       <c r="B130" s="149" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C130" s="22" t="s">
-        <v>773</v>
-      </c>
-      <c r="D130" s="52"/>
-      <c r="E130" s="43" t="s">
-        <v>774</v>
-      </c>
-      <c r="F130" s="43" t="s">
-        <v>774</v>
+        <v>715</v>
+      </c>
+      <c r="D130" s="22"/>
+      <c r="E130" s="157" t="s">
+        <v>410</v>
+      </c>
+      <c r="F130" s="157" t="s">
+        <v>410</v>
       </c>
       <c r="G130" s="161" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13085,20 +13255,20 @@
         <v>92</v>
       </c>
       <c r="B131" s="149" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C131" s="22" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="D131" s="22"/>
-      <c r="E131" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>431</v>
+      <c r="E131" s="113" t="s">
+        <v>411</v>
+      </c>
+      <c r="F131" s="113" t="s">
+        <v>411</v>
       </c>
       <c r="G131" s="161" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13106,17 +13276,20 @@
         <v>92</v>
       </c>
       <c r="B132" s="149" t="s">
-        <v>424</v>
+        <v>382</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>723</v>
+        <v>890</v>
       </c>
       <c r="D132" s="22"/>
-      <c r="E132" s="23" t="s">
-        <v>724</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>724</v>
+      <c r="E132" s="156" t="s">
+        <v>891</v>
+      </c>
+      <c r="F132" s="156" t="s">
+        <v>891</v>
+      </c>
+      <c r="G132" s="161" t="s">
+        <v>962</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13127,17 +13300,17 @@
         <v>424</v>
       </c>
       <c r="C133" s="22" t="s">
-        <v>735</v>
-      </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="23" t="s">
-        <v>444</v>
-      </c>
-      <c r="F133" s="23" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+      <c r="D133" s="52"/>
+      <c r="E133" s="43" t="s">
+        <v>426</v>
+      </c>
+      <c r="F133" s="43" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="148" t="s">
         <v>92</v>
       </c>
@@ -13145,17 +13318,17 @@
         <v>424</v>
       </c>
       <c r="C134" s="22" t="s">
-        <v>750</v>
-      </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="23" t="s">
-        <v>751</v>
-      </c>
-      <c r="F134" s="23" t="s">
-        <v>751</v>
+        <v>773</v>
+      </c>
+      <c r="D134" s="52"/>
+      <c r="E134" s="43" t="s">
+        <v>774</v>
+      </c>
+      <c r="F134" s="43" t="s">
+        <v>774</v>
       </c>
       <c r="G134" s="161" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13166,17 +13339,17 @@
         <v>424</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>449</v>
+        <v>772</v>
       </c>
       <c r="D135" s="22"/>
-      <c r="E135" s="58" t="s">
-        <v>450</v>
-      </c>
-      <c r="F135" s="58" t="s">
-        <v>450</v>
+      <c r="E135" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>431</v>
       </c>
       <c r="G135" s="161" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13187,17 +13360,14 @@
         <v>424</v>
       </c>
       <c r="C136" s="22" t="s">
-        <v>718</v>
-      </c>
-      <c r="D136" s="119"/>
-      <c r="E136" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="F136" s="120" t="s">
-        <v>454</v>
-      </c>
-      <c r="G136" s="161" t="s">
-        <v>947</v>
+        <v>723</v>
+      </c>
+      <c r="D136" s="22"/>
+      <c r="E136" s="23" t="s">
+        <v>724</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13208,17 +13378,14 @@
         <v>424</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>457</v>
+        <v>735</v>
       </c>
       <c r="D137" s="22"/>
-      <c r="E137" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="F137" s="58" t="s">
-        <v>458</v>
-      </c>
-      <c r="G137" s="161" t="s">
-        <v>948</v>
+      <c r="E137" s="23" t="s">
+        <v>444</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13229,17 +13396,17 @@
         <v>424</v>
       </c>
       <c r="C138" s="22" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="D138" s="22"/>
       <c r="E138" s="23" t="s">
-        <v>461</v>
+        <v>751</v>
       </c>
       <c r="F138" s="23" t="s">
-        <v>461</v>
+        <v>751</v>
       </c>
       <c r="G138" s="161" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13250,17 +13417,17 @@
         <v>424</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D139" s="22"/>
-      <c r="E139" s="23" t="s">
-        <v>465</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>465</v>
+      <c r="E139" s="58" t="s">
+        <v>450</v>
+      </c>
+      <c r="F139" s="58" t="s">
+        <v>450</v>
       </c>
       <c r="G139" s="161" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13271,17 +13438,17 @@
         <v>424</v>
       </c>
       <c r="C140" s="22" t="s">
-        <v>721</v>
-      </c>
-      <c r="D140" s="22"/>
-      <c r="E140" s="58" t="s">
-        <v>470</v>
-      </c>
-      <c r="F140" s="58" t="s">
-        <v>470</v>
+        <v>718</v>
+      </c>
+      <c r="D140" s="119"/>
+      <c r="E140" s="120" t="s">
+        <v>454</v>
+      </c>
+      <c r="F140" s="120" t="s">
+        <v>454</v>
       </c>
       <c r="G140" s="161" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -13292,19 +13459,17 @@
         <v>424</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="D141" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="E141" s="149" t="s">
-        <v>474</v>
-      </c>
-      <c r="F141" s="149" t="s">
-        <v>474</v>
+        <v>457</v>
+      </c>
+      <c r="D141" s="22"/>
+      <c r="E141" s="58" t="s">
+        <v>458</v>
+      </c>
+      <c r="F141" s="58" t="s">
+        <v>458</v>
       </c>
       <c r="G141" s="161" t="s">
-        <v>960</v>
+        <v>948</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13315,16 +13480,17 @@
         <v>424</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="D142" s="22" t="s">
-        <v>477</v>
-      </c>
-      <c r="E142" s="149" t="s">
-        <v>474</v>
-      </c>
-      <c r="F142" s="149" t="s">
-        <v>474</v>
+        <v>669</v>
+      </c>
+      <c r="D142" s="22"/>
+      <c r="E142" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="G142" s="161" t="s">
+        <v>949</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13335,20 +13501,20 @@
         <v>424</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D143" s="22"/>
-      <c r="E143" s="58" t="s">
-        <v>480</v>
-      </c>
-      <c r="F143" s="58" t="s">
-        <v>480</v>
+      <c r="E143" s="23" t="s">
+        <v>465</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>465</v>
       </c>
       <c r="G143" s="161" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="148" t="s">
         <v>92</v>
       </c>
@@ -13356,119 +13522,123 @@
         <v>424</v>
       </c>
       <c r="C144" s="22" t="s">
-        <v>831</v>
+        <v>721</v>
       </c>
       <c r="D144" s="22"/>
       <c r="E144" s="58" t="s">
-        <v>832</v>
+        <v>470</v>
       </c>
       <c r="F144" s="58" t="s">
-        <v>832</v>
+        <v>470</v>
       </c>
       <c r="G144" s="161" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="B145" s="58" t="s">
-        <v>483</v>
+      <c r="B145" s="149" t="s">
+        <v>424</v>
       </c>
       <c r="C145" s="22" t="s">
-        <v>484</v>
-      </c>
-      <c r="D145" s="22"/>
-      <c r="E145" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>485</v>
+        <v>473</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>473</v>
+      </c>
+      <c r="E145" s="149" t="s">
+        <v>474</v>
+      </c>
+      <c r="F145" s="149" t="s">
+        <v>474</v>
       </c>
       <c r="G145" s="161" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="148" t="s">
-        <v>489</v>
+        <v>92</v>
       </c>
       <c r="B146" s="149" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="D146" s="22"/>
-      <c r="E146" s="58" t="s">
-        <v>492</v>
-      </c>
-      <c r="F146" s="58" t="s">
-        <v>492</v>
-      </c>
-      <c r="G146" s="161" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>1073</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E146" s="149" t="s">
+        <v>474</v>
+      </c>
+      <c r="F146" s="149" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="148" t="s">
-        <v>489</v>
+        <v>92</v>
       </c>
       <c r="B147" s="149" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>670</v>
+        <v>479</v>
       </c>
       <c r="D147" s="22"/>
-      <c r="E147" s="23" t="s">
-        <v>496</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>496</v>
+      <c r="E147" s="58" t="s">
+        <v>480</v>
+      </c>
+      <c r="F147" s="58" t="s">
+        <v>480</v>
       </c>
       <c r="G147" s="161" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="148" t="s">
-        <v>489</v>
+        <v>92</v>
       </c>
       <c r="B148" s="149" t="s">
-        <v>490</v>
+        <v>424</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>796</v>
-      </c>
-      <c r="D148" s="52"/>
-      <c r="E148" s="65" t="s">
-        <v>500</v>
-      </c>
-      <c r="F148" s="65" t="s">
-        <v>500</v>
+        <v>1074</v>
+      </c>
+      <c r="D148" s="22"/>
+      <c r="E148" s="58" t="s">
+        <v>832</v>
+      </c>
+      <c r="F148" s="58" t="s">
+        <v>832</v>
       </c>
       <c r="G148" s="161" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="148" t="s">
-        <v>489</v>
-      </c>
-      <c r="B149" s="149" t="s">
-        <v>490</v>
+        <v>92</v>
+      </c>
+      <c r="B149" s="58" t="s">
+        <v>483</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>502</v>
-      </c>
-      <c r="D149" s="52"/>
-      <c r="E149" s="43" t="s">
-        <v>503</v>
-      </c>
-      <c r="F149" s="43" t="s">
-        <v>503</v>
+        <v>484</v>
+      </c>
+      <c r="D149" s="22"/>
+      <c r="E149" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>485</v>
+      </c>
+      <c r="G149" s="161" t="s">
+        <v>953</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13479,17 +13649,17 @@
         <v>490</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>742</v>
+        <v>491</v>
       </c>
       <c r="D150" s="22"/>
-      <c r="E150" s="23" t="s">
-        <v>743</v>
-      </c>
-      <c r="F150" s="23" t="s">
-        <v>743</v>
+      <c r="E150" s="58" t="s">
+        <v>492</v>
+      </c>
+      <c r="F150" s="58" t="s">
+        <v>492</v>
       </c>
       <c r="G150" s="161" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="45" x14ac:dyDescent="0.25">
@@ -13500,40 +13670,117 @@
         <v>490</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>508</v>
+        <v>670</v>
       </c>
       <c r="D151" s="22"/>
       <c r="E151" s="23" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="F151" s="23" t="s">
-        <v>509</v>
+        <v>496</v>
+      </c>
+      <c r="G151" s="161" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A152" s="148" t="s">
         <v>489</v>
       </c>
-      <c r="B152" s="58" t="s">
+      <c r="B152" s="149" t="s">
+        <v>490</v>
+      </c>
+      <c r="C152" s="22" t="s">
+        <v>796</v>
+      </c>
+      <c r="D152" s="52"/>
+      <c r="E152" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="F152" s="65" t="s">
+        <v>500</v>
+      </c>
+      <c r="G152" s="161" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B153" s="149" t="s">
+        <v>490</v>
+      </c>
+      <c r="C153" s="22" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D153" s="52"/>
+      <c r="E153" s="43" t="s">
+        <v>503</v>
+      </c>
+      <c r="F153" s="43" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A154" s="148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B154" s="149" t="s">
+        <v>490</v>
+      </c>
+      <c r="C154" s="22" t="s">
+        <v>742</v>
+      </c>
+      <c r="D154" s="22"/>
+      <c r="E154" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>743</v>
+      </c>
+      <c r="G154" s="161" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A155" s="148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B155" s="149" t="s">
+        <v>490</v>
+      </c>
+      <c r="C155" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="D155" s="22"/>
+      <c r="E155" s="23" t="s">
+        <v>509</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="148" t="s">
+        <v>489</v>
+      </c>
+      <c r="B156" s="58" t="s">
         <v>528</v>
       </c>
-      <c r="C152" s="22" t="s">
+      <c r="C156" s="22" t="s">
         <v>532</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="23" t="s">
+      <c r="D156" s="22"/>
+      <c r="E156" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="F152" s="23" t="s">
+      <c r="F156" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="G152" s="161" t="s">
+      <c r="G156" s="161" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E153" s="108"/>
-      <c r="F153" s="108"/>
     </row>
     <row r="198" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C198" s="110"/>
@@ -15036,119 +15283,120 @@
     <mergeCell ref="E230:E231"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{498AF30E-2983-4B36-8708-44DD834C7DD3}"/>
-    <hyperlink ref="G7" r:id="rId2" xr:uid="{7C800BA3-78DE-4C68-8E8E-2AB85509ECD8}"/>
-    <hyperlink ref="G10" r:id="rId3" xr:uid="{2C8167C3-8EA0-4417-A735-5BE6A8FC654A}"/>
-    <hyperlink ref="G12" r:id="rId4" xr:uid="{183E411B-FFD9-4AB7-B2A4-3A64C9917D6A}"/>
-    <hyperlink ref="G13" r:id="rId5" xr:uid="{91E0F985-30D3-4DC3-B053-3BCC9269CBF7}"/>
-    <hyperlink ref="G14" r:id="rId6" xr:uid="{575C9BB8-5039-488C-8709-4E8BE8DDC46D}"/>
-    <hyperlink ref="G16" r:id="rId7" xr:uid="{1EC717F9-4355-49AD-9D70-88E857DC43C8}"/>
-    <hyperlink ref="G17" r:id="rId8" xr:uid="{C19692DD-74DF-4622-8C22-D73DF1D0EF9F}"/>
-    <hyperlink ref="G18" r:id="rId9" xr:uid="{D9EDA4DE-C304-408E-B4E3-68B93A75ED36}"/>
-    <hyperlink ref="G21" r:id="rId10" xr:uid="{C1F521AA-25B1-4CCF-AC1E-14E95062337A}"/>
-    <hyperlink ref="G37" r:id="rId11" xr:uid="{FF6FD4E4-7FAA-433F-AF00-F6A8778FEEFD}"/>
-    <hyperlink ref="G39" r:id="rId12" xr:uid="{F5B130C0-C28D-458F-BC5F-22D6E9140323}"/>
-    <hyperlink ref="G40" r:id="rId13" xr:uid="{28AE1EA1-9025-414D-8CF1-52ECDA1E0A28}"/>
-    <hyperlink ref="G43" r:id="rId14" xr:uid="{9A473CA2-9CE3-4A69-A345-B19B2065625A}"/>
-    <hyperlink ref="G44" r:id="rId15" xr:uid="{72276B6B-ABB6-4732-A2F0-3BEE4B8B1B79}"/>
-    <hyperlink ref="G45" r:id="rId16" xr:uid="{A8E16640-CE45-4AE2-9393-D63DFB4297ED}"/>
-    <hyperlink ref="G46" r:id="rId17" xr:uid="{DC2BB4E0-AB01-4F7A-9E12-53FCAFDED5E6}"/>
-    <hyperlink ref="G49" r:id="rId18" xr:uid="{0E6ECB8E-6493-42B3-97A0-F3596BE279D9}"/>
-    <hyperlink ref="G56" r:id="rId19" xr:uid="{08F39D4F-9B5D-424B-BFB1-F687D11183F8}"/>
-    <hyperlink ref="G59" r:id="rId20" xr:uid="{A5A28FB4-A04D-4367-A54A-742F5E8AE0E2}"/>
-    <hyperlink ref="G60" r:id="rId21" xr:uid="{003AE7A3-56B9-4CFD-8DC3-52774F7E2C78}"/>
-    <hyperlink ref="G69" r:id="rId22" xr:uid="{881E4E93-4E1D-4C90-98EA-B63448787E9E}"/>
-    <hyperlink ref="G71" r:id="rId23" xr:uid="{4B6B6F19-F13A-4857-911B-591A482892AB}"/>
-    <hyperlink ref="G74" r:id="rId24" xr:uid="{480839AA-DD4B-431E-90E6-572C27F7B995}"/>
-    <hyperlink ref="G77" r:id="rId25" xr:uid="{11D06993-9A62-4D40-99AB-FB0BEC8FF32D}"/>
-    <hyperlink ref="G78" r:id="rId26" xr:uid="{A10B0A9F-F03B-4408-B73C-6B71628ACC1C}"/>
-    <hyperlink ref="G79" r:id="rId27" xr:uid="{C82187A1-C954-4CFB-9A20-0B57356BB50D}"/>
-    <hyperlink ref="G83" r:id="rId28" xr:uid="{873A10AA-71B7-4650-95B6-7E81055722B6}"/>
-    <hyperlink ref="G84" r:id="rId29" xr:uid="{E2C23D50-FFC3-4B39-88FB-4C2A22AEC431}"/>
-    <hyperlink ref="G88" r:id="rId30" xr:uid="{ADAD8C8C-0CD5-467C-B4E7-B02B6378F5A8}"/>
-    <hyperlink ref="G94" r:id="rId31" xr:uid="{F4B474FB-7B90-4656-AA99-FFFB8D67465A}"/>
-    <hyperlink ref="G96" r:id="rId32" xr:uid="{1CA61185-3B7E-4E27-BF03-80C4DD2B90DF}"/>
-    <hyperlink ref="G98" r:id="rId33" xr:uid="{91D16271-6536-4896-AEC1-C5B4893B2B86}"/>
-    <hyperlink ref="G100" r:id="rId34" xr:uid="{8FBD222A-4BD4-46A0-816F-6E5AB24CBBC9}"/>
-    <hyperlink ref="G101" r:id="rId35" xr:uid="{B16BC5B9-9DE9-489A-97C2-19DCDCA6D058}"/>
-    <hyperlink ref="G110" r:id="rId36" xr:uid="{264369B5-BAB2-492D-8331-4DAE98E28B0B}"/>
-    <hyperlink ref="G115" r:id="rId37" xr:uid="{00223CF9-1E9C-460C-89E0-0C22F4035215}"/>
-    <hyperlink ref="G119" r:id="rId38" xr:uid="{9781579A-85A4-4493-8664-7EEEDEBAFC09}"/>
-    <hyperlink ref="G120" r:id="rId39" xr:uid="{C4EC6A06-049A-4707-B247-9CA3EBD9132C}"/>
-    <hyperlink ref="G124" r:id="rId40" xr:uid="{6A71EF46-6F85-4993-B2C2-3E203B8CEBA5}"/>
-    <hyperlink ref="G131" r:id="rId41" xr:uid="{C17BD48D-5A21-4D56-BE90-D85B62F0FD0A}"/>
-    <hyperlink ref="G134" r:id="rId42" xr:uid="{B0D962E2-E7D2-4C1C-A31E-5911A2A1756E}"/>
-    <hyperlink ref="G135" r:id="rId43" xr:uid="{6F02479E-FCAB-49C5-80D6-8BB8E8EF8896}"/>
-    <hyperlink ref="G136" r:id="rId44" xr:uid="{5E8B4DAE-2A3F-478F-AF78-74A8CA2BA073}"/>
-    <hyperlink ref="G137" r:id="rId45" xr:uid="{B7D02E54-644D-40DA-B58C-0FB269C02131}"/>
-    <hyperlink ref="G138" r:id="rId46" xr:uid="{B925ECEC-5ABC-4EA8-966B-0DA7046DB988}"/>
-    <hyperlink ref="G139" r:id="rId47" xr:uid="{6ED11C37-154E-43DD-8A73-D6E4ECBBAA77}"/>
-    <hyperlink ref="G140" r:id="rId48" xr:uid="{7C1CBE4E-99DA-420E-9FFB-22EB13DB61F6}"/>
-    <hyperlink ref="G143" r:id="rId49" xr:uid="{16C37A01-B19A-48AA-9C5F-74DE818F4BFA}"/>
-    <hyperlink ref="G145" r:id="rId50" xr:uid="{82B5DF22-C43B-43D4-8576-CFE09D9A51FF}"/>
-    <hyperlink ref="G146" r:id="rId51" xr:uid="{E4F78EB8-301A-4E71-8AA5-6002E20D669E}"/>
-    <hyperlink ref="G147" r:id="rId52" xr:uid="{7A6A2F46-CC0D-411C-A9B9-2D0E36BB7E71}"/>
-    <hyperlink ref="G152" r:id="rId53" xr:uid="{20EBB094-D160-4215-A738-5D7B72DE24C5}"/>
-    <hyperlink ref="G148" r:id="rId54" xr:uid="{FA3BFE8D-2658-47B2-ADAA-6E330BD0AF7B}"/>
-    <hyperlink ref="G150" r:id="rId55" xr:uid="{2E947445-6124-43DC-8CEE-6FF55CF08C33}"/>
-    <hyperlink ref="G144" r:id="rId56" xr:uid="{B907AFD9-41D3-4AFA-8F40-833E1ED8054D}"/>
-    <hyperlink ref="G141" r:id="rId57" xr:uid="{8DCE0B11-F649-456C-B674-0EC9507FA665}"/>
-    <hyperlink ref="G130" r:id="rId58" xr:uid="{DDCCF1B6-223E-4C0D-8E7B-C4BAEA21F896}"/>
-    <hyperlink ref="G128" r:id="rId59" xr:uid="{F3CF0C97-5869-498B-BD36-57CB16D5AF4C}"/>
-    <hyperlink ref="G127" r:id="rId60" xr:uid="{5FB5C455-AB9B-4AAB-BB49-E31448BDAEEC}"/>
-    <hyperlink ref="G126" r:id="rId61" xr:uid="{E1A60FCC-B0F2-4474-9A2F-86EEBD17029A}"/>
-    <hyperlink ref="G123" r:id="rId62" xr:uid="{E464E010-6532-4248-B3DD-1A4FD2453944}"/>
-    <hyperlink ref="G122" r:id="rId63" xr:uid="{58DC362A-DFE7-4056-9C0A-523088A8585D}"/>
-    <hyperlink ref="G121" r:id="rId64" xr:uid="{E5AA4926-44EE-4121-8D44-56A2897675E8}"/>
-    <hyperlink ref="G118" r:id="rId65" xr:uid="{C4683E4C-613C-42F4-BFF2-602E32291BC1}"/>
-    <hyperlink ref="G116" r:id="rId66" xr:uid="{D74D64C9-7258-4930-A015-8F740F2986D0}"/>
-    <hyperlink ref="G117" r:id="rId67" xr:uid="{6BA810EA-A15A-4489-A285-156605D0BD81}"/>
-    <hyperlink ref="G112" r:id="rId68" xr:uid="{E975BD1B-7682-499E-BEE1-07EE39BE8AA9}"/>
-    <hyperlink ref="G111" r:id="rId69" xr:uid="{CCDF38E7-C2F7-485B-84A6-5507DDCE99C6}"/>
-    <hyperlink ref="G109" r:id="rId70" xr:uid="{545A81DC-AF0D-44EA-BDE7-685A9731EA26}"/>
-    <hyperlink ref="G108" r:id="rId71" xr:uid="{4713AE4C-9D56-48F8-9B11-A07D35F2A656}"/>
-    <hyperlink ref="G107" r:id="rId72" xr:uid="{D06F8BE6-6E84-41BD-B56D-02E7DE90DF2C}"/>
-    <hyperlink ref="G106" r:id="rId73" xr:uid="{A0CE5ED6-9CCA-4C1E-B4BB-66CD8698F863}"/>
-    <hyperlink ref="G105" r:id="rId74" xr:uid="{8D0BD415-42CA-40D6-A50C-AF5D802D1725}"/>
-    <hyperlink ref="G104" r:id="rId75" xr:uid="{12EA9F4D-1F0F-4FD8-A6DF-1E7A62EA8645}"/>
-    <hyperlink ref="G102" r:id="rId76" xr:uid="{90166974-EF67-4530-9598-A6F411439FD7}"/>
-    <hyperlink ref="G97" r:id="rId77" xr:uid="{23C14527-CAC0-4B07-AC44-681CF0B70D89}"/>
-    <hyperlink ref="G93" r:id="rId78" xr:uid="{20628663-AC74-4EFD-96AD-B5EA571E420C}"/>
-    <hyperlink ref="G92" r:id="rId79" xr:uid="{F7CD3848-0E18-49C8-8BFA-4A72317B7E00}"/>
-    <hyperlink ref="G91" r:id="rId80" xr:uid="{EC901592-DF22-4BF5-BC4E-B2295C9A42D2}"/>
-    <hyperlink ref="G90" r:id="rId81" xr:uid="{E087A17C-FBEB-4590-B61F-62A561502981}"/>
-    <hyperlink ref="G89" r:id="rId82" xr:uid="{6C64CC5F-44C4-407E-9643-78BFE5DC8D7E}"/>
-    <hyperlink ref="G87" r:id="rId83" xr:uid="{C0639291-F41E-4E62-9C0B-50EE15878850}"/>
-    <hyperlink ref="G86" r:id="rId84" xr:uid="{21DCE1E2-04E7-4486-BDCA-73D6061DA8E2}"/>
-    <hyperlink ref="G85" r:id="rId85" xr:uid="{74D8B7F5-8C26-49DB-A7BE-0010B2B66ECE}"/>
-    <hyperlink ref="G82" r:id="rId86" location="6490898" xr:uid="{31E2EEAF-AE2C-4FEC-A86F-3912EDCB8DAB}"/>
-    <hyperlink ref="G76" r:id="rId87" xr:uid="{099722BE-4C82-49F8-95C5-27F42C04F6A3}"/>
-    <hyperlink ref="G75" r:id="rId88" xr:uid="{288D79F1-91C2-48A1-BE96-E0C0B9F98B60}"/>
-    <hyperlink ref="G73" r:id="rId89" xr:uid="{16ECD175-3280-448B-B53E-7893222E686D}"/>
-    <hyperlink ref="G72" r:id="rId90" xr:uid="{1CDB1A63-E384-47E8-B24A-15AE6D993C92}"/>
-    <hyperlink ref="G70" r:id="rId91" xr:uid="{DD280915-86B0-4EEF-B646-F224267A1196}"/>
-    <hyperlink ref="G68" r:id="rId92" xr:uid="{C305FC7F-C4FE-4CE0-B87C-FCCCC26D0919}"/>
-    <hyperlink ref="G63" r:id="rId93" xr:uid="{24A377FD-FDA9-41BE-9389-5D1F4539472E}"/>
-    <hyperlink ref="G62" r:id="rId94" xr:uid="{1032338D-2ECE-441A-8688-C876B59FE21C}"/>
-    <hyperlink ref="G54" r:id="rId95" xr:uid="{253FF5E6-A442-4435-8855-FE3FD70641E2}"/>
-    <hyperlink ref="G52" r:id="rId96" xr:uid="{D5730ECE-7DDD-4533-B30D-DDFE0778F22C}"/>
-    <hyperlink ref="G51" r:id="rId97" xr:uid="{CA0B077F-F8F3-4DF0-9B7B-08232A01E713}"/>
-    <hyperlink ref="G50" r:id="rId98" xr:uid="{F57C1FA4-B77F-495C-91EB-F8C739C1C6C5}"/>
-    <hyperlink ref="G48" r:id="rId99" xr:uid="{4EA117EC-AE8A-4845-A857-AC72AE7378BA}"/>
-    <hyperlink ref="G47" r:id="rId100" xr:uid="{3B28260A-AE9A-44CD-A884-37943FB70D02}"/>
-    <hyperlink ref="G38" r:id="rId101" xr:uid="{B4C6805D-856E-4D83-9FB9-8757C9E9C3B7}"/>
-    <hyperlink ref="G35" r:id="rId102" xr:uid="{529E600D-FC18-4304-BED0-A6F3A430167E}"/>
-    <hyperlink ref="G34" r:id="rId103" xr:uid="{8777E403-910B-4DB9-8FB0-7934CE2144DB}"/>
-    <hyperlink ref="G32" r:id="rId104" xr:uid="{5AF6102A-A34A-417F-AB18-11F12CA1AD6C}"/>
-    <hyperlink ref="G29" r:id="rId105" xr:uid="{20C098F8-A278-4D60-9D53-913722647E99}"/>
-    <hyperlink ref="G27" r:id="rId106" xr:uid="{6865795F-3B2F-4738-A8F2-64FD6BC9D590}"/>
-    <hyperlink ref="G2" r:id="rId107" xr:uid="{972DCD45-A117-48E3-BEDC-9C5AA6B3C94B}"/>
-    <hyperlink ref="G6" r:id="rId108" xr:uid="{AB9A24C1-2BCD-4452-A2D1-08B2076EBE04}"/>
-    <hyperlink ref="G8" r:id="rId109" xr:uid="{7941A3E7-D66F-4A6D-BE12-4A3C847F320A}"/>
-    <hyperlink ref="G11" r:id="rId110" xr:uid="{3343F624-972D-4438-B67E-33D8130E9797}"/>
-    <hyperlink ref="G15" r:id="rId111" xr:uid="{F1AE2E6A-872D-451C-8AA5-AC75841727D3}"/>
-    <hyperlink ref="G22" r:id="rId112" xr:uid="{FD69025E-E6B5-48F5-A070-658365626C6F}"/>
-    <hyperlink ref="G26" r:id="rId113" xr:uid="{2AC0CDAC-E1DC-4608-A3A2-6712DCB8EDC5}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{9802C47F-B0AF-4F01-9A96-BB740552C817}"/>
+    <hyperlink ref="G7" r:id="rId2" xr:uid="{08BEB450-E902-454F-A2AE-5F58D05EE68F}"/>
+    <hyperlink ref="G10" r:id="rId3" xr:uid="{6586C979-CE1E-4721-B2EF-951F0078DA74}"/>
+    <hyperlink ref="G12" r:id="rId4" xr:uid="{3DE25B69-CB16-46EF-A5FD-0F690FA66392}"/>
+    <hyperlink ref="G13" r:id="rId5" xr:uid="{2E25D1B4-8E17-4B8E-9B03-A173625F0696}"/>
+    <hyperlink ref="G14" r:id="rId6" xr:uid="{96F1F848-7391-44A4-867A-DDE216E5505F}"/>
+    <hyperlink ref="G16" r:id="rId7" xr:uid="{38EDDE24-ECDC-4C20-AC72-87D1FFE1F010}"/>
+    <hyperlink ref="G17" r:id="rId8" xr:uid="{489A55EB-581C-472D-A554-EDEE73B204DC}"/>
+    <hyperlink ref="G18" r:id="rId9" xr:uid="{292E560F-D301-4677-8985-622B277E72C4}"/>
+    <hyperlink ref="G21" r:id="rId10" xr:uid="{2D4DA601-499C-4798-B4BF-2C96E6D0C1D8}"/>
+    <hyperlink ref="G38" r:id="rId11" xr:uid="{F03ED307-449D-49CC-810D-67B73AB431BB}"/>
+    <hyperlink ref="G40" r:id="rId12" xr:uid="{5BEBB2CB-F5D4-47F3-A243-F355D808B265}"/>
+    <hyperlink ref="G41" r:id="rId13" xr:uid="{246FF903-631A-4815-898D-FF0363CCAF66}"/>
+    <hyperlink ref="G44" r:id="rId14" xr:uid="{04B45D97-3554-4841-8274-5CA0B2410EF1}"/>
+    <hyperlink ref="G45" r:id="rId15" xr:uid="{34113E61-547B-47A4-826C-CBF3FABF3DEA}"/>
+    <hyperlink ref="G46" r:id="rId16" xr:uid="{3229AD5C-5A59-4A04-8207-4A7EB3E3AF8A}"/>
+    <hyperlink ref="G47" r:id="rId17" xr:uid="{3F08B761-6177-4E71-BB45-9B1FF0BC8F28}"/>
+    <hyperlink ref="G50" r:id="rId18" xr:uid="{8786E586-661B-448D-9CB3-6A77771E61E0}"/>
+    <hyperlink ref="G58" r:id="rId19" xr:uid="{E14A811C-BDDA-4904-A138-B8DE71D9D9F3}"/>
+    <hyperlink ref="G61" r:id="rId20" xr:uid="{5735C42E-491A-46E2-A9E7-BF230D2A76D5}"/>
+    <hyperlink ref="G62" r:id="rId21" xr:uid="{632421BC-1330-4B20-86D8-C8100418D4CF}"/>
+    <hyperlink ref="G72" r:id="rId22" xr:uid="{B87B76CF-7A07-460D-9A04-BEF4B1040722}"/>
+    <hyperlink ref="G74" r:id="rId23" xr:uid="{28974B48-DD41-40BB-AEE9-4D543C17826E}"/>
+    <hyperlink ref="G77" r:id="rId24" xr:uid="{058A6F4F-FB15-4B82-B7DD-C7BA739685DF}"/>
+    <hyperlink ref="G80" r:id="rId25" xr:uid="{9E655B3E-C230-49AB-B83A-EFDD4AAA0BFB}"/>
+    <hyperlink ref="G81" r:id="rId26" xr:uid="{00F80F2E-9438-4328-BAAF-11D4A8010C82}"/>
+    <hyperlink ref="G82" r:id="rId27" xr:uid="{41720AB3-B057-457A-9016-23674220717E}"/>
+    <hyperlink ref="G86" r:id="rId28" xr:uid="{8A50BC79-7989-4F58-9AEA-5C2454C209A9}"/>
+    <hyperlink ref="G87" r:id="rId29" xr:uid="{5D499BCB-FA8B-4DA2-8DF0-8492CFD4D2F9}"/>
+    <hyperlink ref="G91" r:id="rId30" xr:uid="{62E3C5A3-E309-4773-B432-65B6119252F3}"/>
+    <hyperlink ref="G98" r:id="rId31" xr:uid="{B4437A7D-3FD6-4BC0-9D3E-174D5A711F6B}"/>
+    <hyperlink ref="G99" r:id="rId32" xr:uid="{E0D49B7C-46B6-46FD-93B4-301CB2BCEC9B}"/>
+    <hyperlink ref="G101" r:id="rId33" xr:uid="{34915462-FEFE-41E3-95F2-9CB782B2E371}"/>
+    <hyperlink ref="G103" r:id="rId34" xr:uid="{DDCE527D-5007-47C9-A59D-3C057FE88157}"/>
+    <hyperlink ref="G104" r:id="rId35" xr:uid="{C71F9215-71D7-4085-ADB2-161F9161463D}"/>
+    <hyperlink ref="G113" r:id="rId36" xr:uid="{726A5A42-B014-47A4-9BCC-903B13460953}"/>
+    <hyperlink ref="G118" r:id="rId37" xr:uid="{9B1E0D9E-EB7A-4502-97F1-43FE1CF334FA}"/>
+    <hyperlink ref="G122" r:id="rId38" xr:uid="{EF6F3A12-22DE-4166-BA68-79E4CBE2DBBB}"/>
+    <hyperlink ref="G124" r:id="rId39" xr:uid="{BA215708-27B0-4B79-AED9-95BE2A06C987}"/>
+    <hyperlink ref="G128" r:id="rId40" xr:uid="{355E1C93-DA13-49BC-BC99-6DBD1F04EB45}"/>
+    <hyperlink ref="G135" r:id="rId41" xr:uid="{40CDD469-72AE-448E-91A6-72D3CAB1205C}"/>
+    <hyperlink ref="G138" r:id="rId42" xr:uid="{6870FE95-CEAF-4578-8966-4BA7F7998A3A}"/>
+    <hyperlink ref="G139" r:id="rId43" xr:uid="{B70EA7AB-E5D1-4821-9FE8-F3F77B66AA6D}"/>
+    <hyperlink ref="G140" r:id="rId44" xr:uid="{B5C8AD49-B239-4230-835C-499F24E9B620}"/>
+    <hyperlink ref="G141" r:id="rId45" xr:uid="{D999E824-A1CF-43F7-96EE-DB1AABD7D933}"/>
+    <hyperlink ref="G142" r:id="rId46" xr:uid="{AC190D42-28C8-49F8-8464-47DB24A9B39B}"/>
+    <hyperlink ref="G143" r:id="rId47" xr:uid="{2FD0986F-C26F-46AA-8487-DF369A297D67}"/>
+    <hyperlink ref="G144" r:id="rId48" xr:uid="{803CBA87-6092-47B6-A7FC-C8A34CD36AAE}"/>
+    <hyperlink ref="G147" r:id="rId49" xr:uid="{4B84A697-75C2-4AAD-B55A-2166D998245A}"/>
+    <hyperlink ref="G149" r:id="rId50" xr:uid="{58FFA225-54AB-4F2A-BB31-F9891C4DC6D9}"/>
+    <hyperlink ref="G150" r:id="rId51" xr:uid="{37B0EBBD-F5DF-4CF1-AC1C-E1E617A27FCA}"/>
+    <hyperlink ref="G151" r:id="rId52" xr:uid="{FD509353-8648-4140-9DA4-B53DA57D2A01}"/>
+    <hyperlink ref="G156" r:id="rId53" xr:uid="{F769FE7C-E1E8-4DA0-AF88-E0032ACBF9F6}"/>
+    <hyperlink ref="G152" r:id="rId54" xr:uid="{224FE079-8435-41EE-A14C-071FEFB73E6E}"/>
+    <hyperlink ref="G154" r:id="rId55" xr:uid="{FC403D06-8ED5-4938-88AB-81FB52D24A17}"/>
+    <hyperlink ref="G148" r:id="rId56" xr:uid="{95AF61C1-48F9-44C2-92A7-7DCA651FDCC0}"/>
+    <hyperlink ref="G145" r:id="rId57" xr:uid="{FB259CA0-2837-4B7A-9C77-13ED7E4BC727}"/>
+    <hyperlink ref="G134" r:id="rId58" xr:uid="{E3AAB7EE-4827-472C-BF93-82806BE8A835}"/>
+    <hyperlink ref="G132" r:id="rId59" xr:uid="{FFF54914-2986-41F0-A70A-57367078A327}"/>
+    <hyperlink ref="G131" r:id="rId60" xr:uid="{C25CCD1C-CD0D-4729-8195-0B82315EE6E9}"/>
+    <hyperlink ref="G130" r:id="rId61" xr:uid="{52B4188B-FB81-417E-94B2-0CB9ABD53651}"/>
+    <hyperlink ref="G127" r:id="rId62" xr:uid="{E2B6C8A1-0090-4BA6-A463-88CBF7A8ED21}"/>
+    <hyperlink ref="G126" r:id="rId63" xr:uid="{ACA28668-EB86-4266-9F3B-0D920399E354}"/>
+    <hyperlink ref="G125" r:id="rId64" xr:uid="{D1F1EFC2-A4C8-4F8D-BDC8-94DAA66257DA}"/>
+    <hyperlink ref="G121" r:id="rId65" xr:uid="{3738FA6D-5720-495A-B1D1-29B92682E82B}"/>
+    <hyperlink ref="G119" r:id="rId66" xr:uid="{F2E59799-7518-4A54-A2E5-B6941F66526C}"/>
+    <hyperlink ref="G120" r:id="rId67" xr:uid="{9C3FEC78-66CD-4726-9D05-B8E14CF5323B}"/>
+    <hyperlink ref="G115" r:id="rId68" xr:uid="{F5F11E2E-7BCC-41ED-AB0E-0376AEB3DF3B}"/>
+    <hyperlink ref="G114" r:id="rId69" xr:uid="{06FCC8BB-5991-4C1D-A5F0-FC538309C7D9}"/>
+    <hyperlink ref="G112" r:id="rId70" xr:uid="{70961BE3-2095-4ED1-9886-58A16071E809}"/>
+    <hyperlink ref="G111" r:id="rId71" xr:uid="{F1EF36A8-DF37-4FE9-953F-EC26DD559DB3}"/>
+    <hyperlink ref="G110" r:id="rId72" xr:uid="{388471BE-0B97-41B7-AE5C-212F345D46AF}"/>
+    <hyperlink ref="G109" r:id="rId73" xr:uid="{996CB001-EF07-4948-93DC-C6CFE154E33F}"/>
+    <hyperlink ref="G108" r:id="rId74" xr:uid="{14BA47F2-9A7A-441A-9F3A-7F7EA36E26D6}"/>
+    <hyperlink ref="G107" r:id="rId75" xr:uid="{31D262FC-C974-4DB0-BAC6-523CA8F3E08E}"/>
+    <hyperlink ref="G105" r:id="rId76" xr:uid="{02F61134-E872-4E1E-9F7F-A22E001DD797}"/>
+    <hyperlink ref="G100" r:id="rId77" xr:uid="{2DEA23B2-6FDB-4A76-BEB9-E8E15C740925}"/>
+    <hyperlink ref="G97" r:id="rId78" xr:uid="{361AF2FC-8A9C-47B0-882B-1E68E5A9C8B8}"/>
+    <hyperlink ref="G96" r:id="rId79" xr:uid="{6CBDE828-E492-4711-A778-9101CEF9F6A8}"/>
+    <hyperlink ref="G95" r:id="rId80" xr:uid="{DBE17AE4-5A59-4E8E-B300-D2FBA7E946EB}"/>
+    <hyperlink ref="G94" r:id="rId81" xr:uid="{DD0FC67B-1498-475E-B16E-0A0AF6EA2553}"/>
+    <hyperlink ref="G92" r:id="rId82" xr:uid="{62FB1785-8C3B-40ED-8BF9-BE458A4158B7}"/>
+    <hyperlink ref="G90" r:id="rId83" xr:uid="{5CF147D8-E233-4A39-B534-CD883FC8DAA9}"/>
+    <hyperlink ref="G89" r:id="rId84" xr:uid="{0CC80D40-B8A6-4868-9DDE-303F12AB00C1}"/>
+    <hyperlink ref="G88" r:id="rId85" xr:uid="{797ACC4A-99DF-4217-BEE2-E3F58391522A}"/>
+    <hyperlink ref="G85" r:id="rId86" location="6490898" xr:uid="{FBF52757-9E76-4015-9E25-652DE9923772}"/>
+    <hyperlink ref="G79" r:id="rId87" xr:uid="{786D1CF4-E9F3-459A-82C8-90FF726D8BD8}"/>
+    <hyperlink ref="G78" r:id="rId88" xr:uid="{7FA39BE2-F0CF-4E85-AC90-933168746A69}"/>
+    <hyperlink ref="G76" r:id="rId89" xr:uid="{64AE28F1-D788-4E3A-9948-9E66BF7CBEB4}"/>
+    <hyperlink ref="G75" r:id="rId90" xr:uid="{DA26F181-EE32-48A8-850B-6B081F9061A5}"/>
+    <hyperlink ref="G73" r:id="rId91" xr:uid="{BAC3CA2F-48FD-40A5-8AA2-14E0595C3A24}"/>
+    <hyperlink ref="G70" r:id="rId92" xr:uid="{1CE08676-0FC6-4899-BB76-ACD79AFDCCCB}"/>
+    <hyperlink ref="G65" r:id="rId93" xr:uid="{00932560-CA00-4CB2-BAAB-B0A6BEA01AA7}"/>
+    <hyperlink ref="G64" r:id="rId94" xr:uid="{AE10CEEB-A02B-4D6C-B07B-DBFCD4AB9732}"/>
+    <hyperlink ref="G55" r:id="rId95" xr:uid="{DF051E0F-7AFE-4C5B-B8B9-73C6FB5D7C14}"/>
+    <hyperlink ref="G53" r:id="rId96" xr:uid="{861BB5B5-0698-47FA-B9C7-01D3A35F439C}"/>
+    <hyperlink ref="G52" r:id="rId97" xr:uid="{D3FE3E5F-12FC-4C8D-BB8F-A428C2CA785E}"/>
+    <hyperlink ref="G51" r:id="rId98" xr:uid="{3BD9B49D-D930-4E9B-92EE-DD4E5DEA158F}"/>
+    <hyperlink ref="G49" r:id="rId99" xr:uid="{2EA5640C-747A-4D0C-AA9D-5E7DE367269D}"/>
+    <hyperlink ref="G48" r:id="rId100" xr:uid="{4D2E9EC8-DFA0-4EFA-9BB8-F56F80BF2161}"/>
+    <hyperlink ref="G39" r:id="rId101" xr:uid="{BF50601C-4305-46E3-99DC-4B0EB3B79352}"/>
+    <hyperlink ref="G36" r:id="rId102" xr:uid="{DC7E0DC3-253E-46ED-8A9F-7AA47BE9BDA5}"/>
+    <hyperlink ref="G35" r:id="rId103" xr:uid="{B371D300-B094-44AD-A486-9E71E654C36A}"/>
+    <hyperlink ref="G33" r:id="rId104" xr:uid="{27BE6D4B-CBDB-4037-8D1A-9D75DCBEA47B}"/>
+    <hyperlink ref="G30" r:id="rId105" xr:uid="{FD76C92E-5A4A-413C-8011-7FC53C55C947}"/>
+    <hyperlink ref="G28" r:id="rId106" xr:uid="{0852316E-B179-49D9-AD55-DFFBE2F6B3DF}"/>
+    <hyperlink ref="G2" r:id="rId107" xr:uid="{3EA31CED-320A-459B-9B77-62F5E637A7DB}"/>
+    <hyperlink ref="G6" r:id="rId108" xr:uid="{657942D0-F898-44DF-895A-12D93F01AC23}"/>
+    <hyperlink ref="G8" r:id="rId109" xr:uid="{4DA8BB3F-E102-4391-A7CF-5ABA79684894}"/>
+    <hyperlink ref="G11" r:id="rId110" xr:uid="{0E3320D8-2BB1-434B-8E7D-5E47E714C8FC}"/>
+    <hyperlink ref="G15" r:id="rId111" xr:uid="{743D1196-9202-4093-BD14-D9FA697D1870}"/>
+    <hyperlink ref="G22" r:id="rId112" xr:uid="{7E85653B-8374-4E9E-94FE-AEA7E640EC7E}"/>
+    <hyperlink ref="G26" r:id="rId113" xr:uid="{43B62FA9-1CA7-42A4-88F6-D14794A1FBBC}"/>
+    <hyperlink ref="G19" r:id="rId114" xr:uid="{EDD34C58-F0BD-4439-832D-DA46A0C9CBF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
